--- a/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_혼합30.xlsx
+++ b/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_혼합30.xlsx
@@ -16,7 +16,7 @@
     <sheet name="master" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="254">
   <si>
     <t>CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -848,6 +848,10 @@
   </si>
   <si>
     <t>혼합30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1394,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C132"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2519,10 +2523,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
-        <v>20180618</v>
+        <v>20190617</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
@@ -2530,10 +2534,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
-        <v>20180618</v>
+        <v>20190617</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
@@ -2544,7 +2548,7 @@
         <v>20190617</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C102" s="3">
         <v>0</v>
@@ -2555,7 +2559,7 @@
         <v>20190617</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" s="3">
         <v>0</v>
@@ -2566,7 +2570,7 @@
         <v>20190617</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C104" s="3">
         <v>0</v>
@@ -2577,7 +2581,7 @@
         <v>20190617</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C105" s="3">
         <v>0</v>
@@ -2588,7 +2592,7 @@
         <v>20190617</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C106" s="3">
         <v>0</v>
@@ -2599,7 +2603,7 @@
         <v>20190617</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C107" s="3">
         <v>0</v>
@@ -2610,7 +2614,7 @@
         <v>20190617</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="C108" s="3">
         <v>0</v>
@@ -2621,7 +2625,7 @@
         <v>20190617</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C109" s="3">
         <v>0</v>
@@ -2632,7 +2636,7 @@
         <v>20190617</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="C110" s="3">
         <v>0</v>
@@ -2643,7 +2647,7 @@
         <v>20190617</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C111" s="3">
         <v>0</v>
@@ -2654,7 +2658,7 @@
         <v>20190617</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C112" s="3">
         <v>0</v>
@@ -2665,7 +2669,7 @@
         <v>20190617</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C113" s="3">
         <v>0</v>
@@ -2676,7 +2680,7 @@
         <v>20190617</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
@@ -2687,7 +2691,7 @@
         <v>20190617</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C115" s="3">
         <v>0</v>
@@ -2698,7 +2702,7 @@
         <v>20190617</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C116" s="3">
         <v>0</v>
@@ -2709,7 +2713,7 @@
         <v>20190617</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C117" s="3">
         <v>0</v>
@@ -2720,7 +2724,7 @@
         <v>20190617</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="C118" s="3">
         <v>0</v>
@@ -2731,7 +2735,7 @@
         <v>20190617</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C119" s="3">
         <v>0</v>
@@ -2742,7 +2746,7 @@
         <v>20190617</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C120" s="3">
         <v>0</v>
@@ -2753,7 +2757,7 @@
         <v>20190617</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C121" s="3">
         <v>0</v>
@@ -2764,7 +2768,7 @@
         <v>20190617</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C122" s="3">
         <v>0</v>
@@ -2775,7 +2779,7 @@
         <v>20190617</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C123" s="3">
         <v>0</v>
@@ -2786,7 +2790,7 @@
         <v>20190617</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
@@ -2797,7 +2801,7 @@
         <v>20190617</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C125" s="3">
         <v>0</v>
@@ -2808,7 +2812,7 @@
         <v>20190617</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C126" s="3">
         <v>0</v>
@@ -2819,7 +2823,7 @@
         <v>20190617</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C127" s="3">
         <v>0</v>
@@ -2830,7 +2834,7 @@
         <v>20190617</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="C128" s="3">
         <v>0</v>
@@ -2841,7 +2845,7 @@
         <v>20190617</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="C129" s="3">
         <v>0</v>
@@ -2852,31 +2856,9 @@
         <v>20190617</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="C130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="8">
-        <v>20190617</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="8">
-        <v>20190617</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C132" s="3">
         <v>0</v>
       </c>
     </row>
